--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T20:52:23+00:00</t>
+    <t>2022-07-15T14:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T14:52:55+00:00</t>
+    <t>2022-07-17T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T13:46:32+00:00</t>
+    <t>2022-07-17T16:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:09:40+00:00</t>
+    <t>2022-07-17T16:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:31:22+00:00</t>
+    <t>2022-07-17T19:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T19:03:56+00:00</t>
+    <t>2022-08-04T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:06:48+00:00</t>
+    <t>2022-08-04T13:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:09:21+00:00</t>
+    <t>2022-08-04T16:22:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T16:22:49+00:00</t>
+    <t>2022-08-04T21:23:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:23:28+00:00</t>
+    <t>2022-08-04T21:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$53</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:39:40+00:00</t>
+    <t>2022-08-04T22:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -412,33 +415,70 @@
     <t>Medication.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>tradeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-medication-trade-name}
+</t>
+  </si>
+  <si>
+    <t>MedicationTradeName</t>
+  </si>
+  <si>
+    <t>The trade name of the medication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>targetDiseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-medication-target-disease}
+</t>
+  </si>
+  <si>
+    <t>VPMedicationTargetDisease</t>
+  </si>
+  <si>
+    <t>The ICD-10 code of a disease that is targeted by this medication.</t>
+  </si>
+  <si>
+    <t>Medication.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Medication.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -446,6 +486,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -490,13 +533,10 @@
     <t>Depending on the context of use, the code that was actually selected by the user (prescriber, dispenser, etc.) will have the coding.userSelected set to true.  As described in the coding datatype: "A coding may be marked as a "userSelected" if a user selected the particular coded value in a user interface (e.g. the user selects an item in a pick-list). If a user selected coding exists, it is the preferred choice for performing translations etc. Other codes can only be literal translations to alternative code systems, or codes at a lower level of granularity (e.g. a generic code for a vendor-specific primary one).</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept that defines the type of a medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://fhir.de/ValueSet/ifa/pzn</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -515,6 +555,209 @@
     <t>RXO-1.1-Requested Give Code.code / RXE-2.1-Give Code.code / RXD-2.1-Dispense/Give Code.code / RXG-4.1-Give Code.code /RXA-5.1-Administered Code.code / RXC-2.1 Component Code</t>
   </si>
   <si>
+    <t>Medication.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.code.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Medication.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Medication.status</t>
   </si>
   <si>
@@ -527,9 +770,6 @@
     <t>This status is intended to identify if the medication in a local system is in active use within a drug database or inventory.  For example, a pharmacy system may create a new drug file record for a compounded product "ABC Hospital Special Cream" with an active status.  At some point in the future, it may be determined that the drug record was created with an error and the status is changed to "entered in error".   This status is not intended to specify if a medication is part of a particular formulary.  It is possible that the drug record may be referenced by multiple formularies or catalogues and each of those entries would have a separate status.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>A coded concept defining if the medication is in active use.</t>
   </si>
   <si>
@@ -542,7 +782,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-organization)
 </t>
   </si>
   <si>
@@ -574,9 +814,6 @@
   </si>
   <si>
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
-  </si>
-  <si>
-    <t>A coded concept defining the form of a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
@@ -593,6 +830,39 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
+    <t>Medication.form.id</t>
+  </si>
+  <si>
+    <t>Medication.form.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.id</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.system</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.version</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.code</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.display</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.form.text</t>
+  </si>
+  <si>
     <t>Medication.amount</t>
   </si>
   <si>
@@ -631,25 +901,7 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.ingredient.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Medication.ingredient.modifierExtension</t>
@@ -692,10 +944,6 @@
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Active ingredient indicator</t>
@@ -904,6 +1152,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1072,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1082,7 +1345,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.81640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1108,7 +1371,7 @@
     <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1241,7 +1504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>9</v>
       </c>
@@ -1366,7 +1629,7 @@
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1461,7 +1724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>89</v>
       </c>
@@ -1570,7 +1833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>95</v>
       </c>
@@ -1681,7 +1944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>101</v>
       </c>
@@ -1792,7 +2055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>110</v>
       </c>
@@ -1903,7 +2166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>118</v>
       </c>
@@ -2014,17 +2277,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>75</v>
@@ -2047,9 +2310,7 @@
       <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>73</v>
@@ -2086,19 +2347,17 @@
         <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2110,13 +2369,13 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>73</v>
@@ -2127,43 +2386,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>73</v>
       </c>
@@ -2211,7 +2468,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2220,16 +2477,16 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>73</v>
@@ -2240,40 +2497,40 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>73</v>
@@ -2322,7 +2579,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2331,61 +2588,63 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2409,60 +2668,60 @@
         <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2473,28 +2732,28 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2520,13 +2779,13 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>73</v>
@@ -2544,13 +2803,13 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2562,10 +2821,10 @@
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -2573,7 +2832,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2581,13 +2840,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2596,15 +2855,17 @@
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>73</v>
@@ -2629,13 +2890,11 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2653,7 +2912,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2668,21 +2927,21 @@
         <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2705,17 +2964,15 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2740,13 +2997,13 @@
         <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>73</v>
@@ -2764,47 +3021,47 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2813,18 +3070,20 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -2861,37 +3120,37 @@
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
@@ -2902,7 +3161,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2910,33 +3169,35 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -2984,7 +3245,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3002,18 +3263,18 @@
         <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3039,10 +3300,10 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3093,7 +3354,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3111,7 +3372,7 @@
         <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>73</v>
@@ -3120,13 +3381,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3148,13 +3409,13 @@
         <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3192,19 +3453,19 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3216,13 +3477,13 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
@@ -3233,42 +3494,42 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3317,36 +3578,36 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>73</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3354,7 +3615,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>82</v>
@@ -3366,21 +3627,21 @@
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3428,10 +3689,10 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -3443,21 +3704,21 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3465,32 +3726,32 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
@@ -3539,7 +3800,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3557,18 +3818,18 @@
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3588,19 +3849,21 @@
         <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
       </c>
@@ -3648,7 +3911,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3663,21 +3926,21 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3697,19 +3960,23 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
       </c>
@@ -3772,21 +4039,21 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3806,19 +4073,23 @@
         <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -3866,7 +4137,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3878,56 +4149,56 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3953,13 +4224,13 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -3977,25 +4248,25 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>73</v>
@@ -4006,43 +4277,39 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4090,36 +4357,36 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4127,13 +4394,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4142,15 +4409,17 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>73</v>
@@ -4175,13 +4444,11 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4199,7 +4466,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4214,21 +4481,21 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4251,13 +4518,13 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4308,7 +4575,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4320,22 +4587,2700 @@
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AJ31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>241</v>
+      <c r="L32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM53">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI52">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:05:52+00:00</t>
+    <t>2022-08-04T22:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:26:29+00:00</t>
+    <t>2022-08-04T22:36:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T21:41:07+00:00</t>
+    <t>2022-08-11T05:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T05:51:10+00:00</t>
+    <t>2022-08-11T13:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:02:01+00:00</t>
+    <t>2022-08-11T13:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:55:21+00:00</t>
+    <t>2022-08-12T19:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T19:53:56+00:00</t>
+    <t>2022-08-13T11:44:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-medication.xlsx
+++ b/StructureDefinition-vp-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T11:44:57+00:00</t>
+    <t>2022-08-23T12:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
